--- a/tools/Stock_Trade_WatchLists.xlsx
+++ b/tools/Stock_Trade_WatchLists.xlsx
@@ -5,27 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sponraj/Documents/Selvan/TV_1/Tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sponraj/Documents/Selvan/TV/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8832EAD5-3C27-6444-BC2A-0D452536FAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0D1A95-002F-6E41-BD5C-BF2C3C2F511A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35580" yWindow="6060" windowWidth="42640" windowHeight="15400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intraday Stock Selection" sheetId="6" r:id="rId1"/>
     <sheet name="STOCKS" sheetId="5" r:id="rId2"/>
     <sheet name="UK-STOCKS" sheetId="10" r:id="rId3"/>
     <sheet name="US-STOCKS" sheetId="11" r:id="rId4"/>
-    <sheet name="30-Apr-2020" sheetId="7" r:id="rId5"/>
-    <sheet name="04-May-2020" sheetId="12" r:id="rId6"/>
-    <sheet name="05-May-2020" sheetId="14" r:id="rId7"/>
+    <sheet name="11-May-2020" sheetId="16" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId6"/>
+    <sheet name="30-Apr-2020" sheetId="7" r:id="rId7"/>
+    <sheet name="04-May-2020" sheetId="12" r:id="rId8"/>
+    <sheet name="05-May-2020" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04-May-2020'!$B$3:$M$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'05-May-2020'!$A$1:$M$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'30-Apr-2020'!$B$3:$H$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Intraday Stock Selection'!$B$3:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'04-May-2020'!$B$3:$M$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'05-May-2020'!$A$1:$M$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'11-May-2020'!$A$5:$M$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'30-Apr-2020'!$B$3:$H$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Intraday Stock Selection'!$B$3:$S$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">STOCKS!$B$2:$E$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'UK-STOCKS'!$B$2:$E$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'US-STOCKS'!$B$2:$E$57</definedName>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="349">
   <si>
     <t>Profit Factor (Reward/Risk)</t>
   </si>
@@ -299,9 +302,6 @@
     <t>RSA</t>
   </si>
   <si>
-    <t>RR.</t>
-  </si>
-  <si>
     <t>ANTO</t>
   </si>
   <si>
@@ -771,13 +771,337 @@
   </si>
   <si>
     <t>Each Script</t>
+  </si>
+  <si>
+    <t>Apache Corporation</t>
+  </si>
+  <si>
+    <t>12.45▲</t>
+  </si>
+  <si>
+    <t>+0.57 (+4.80%)</t>
+  </si>
+  <si>
+    <t>4.48B</t>
+  </si>
+  <si>
+    <t>BlackRock, Inc</t>
+  </si>
+  <si>
+    <t>498.78▲</t>
+  </si>
+  <si>
+    <t>+1.39 (+0.28%)</t>
+  </si>
+  <si>
+    <t>77.21B</t>
+  </si>
+  <si>
+    <t>Boston Scientific Corporation</t>
+  </si>
+  <si>
+    <t>38.18▲</t>
+  </si>
+  <si>
+    <t>+1.18 (+3.19%)</t>
+  </si>
+  <si>
+    <t>51.78B</t>
+  </si>
+  <si>
+    <t>Cisco Systems, Inc</t>
+  </si>
+  <si>
+    <t>42.99▲</t>
+  </si>
+  <si>
+    <t>+1.62 (+3.92%)</t>
+  </si>
+  <si>
+    <t>175.45B</t>
+  </si>
+  <si>
+    <t>Digital Realty Trust, Inc</t>
+  </si>
+  <si>
+    <t>145.06▼</t>
+  </si>
+  <si>
+    <t>-3.97 (-2.66%)</t>
+  </si>
+  <si>
+    <t>39.97B</t>
+  </si>
+  <si>
+    <t>DaVita Inc</t>
+  </si>
+  <si>
+    <t>80.76▲</t>
+  </si>
+  <si>
+    <t>+0.60 (+0.75%)</t>
+  </si>
+  <si>
+    <t>9.76B</t>
+  </si>
+  <si>
+    <t>The Kraft Heinz Company</t>
+  </si>
+  <si>
+    <t>29.56▲</t>
+  </si>
+  <si>
+    <t>+0.73 (+2.53%)</t>
+  </si>
+  <si>
+    <t>35.97B</t>
+  </si>
+  <si>
+    <t>NextEra Energy, Inc</t>
+  </si>
+  <si>
+    <t>229.73▲</t>
+  </si>
+  <si>
+    <t>+5.25 (+2.34%)</t>
+  </si>
+  <si>
+    <t>111.31B</t>
+  </si>
+  <si>
+    <t>Newmont Goldcorp Corporation</t>
+  </si>
+  <si>
+    <t>64.55▼</t>
+  </si>
+  <si>
+    <t>-0.01 (-0.02%)</t>
+  </si>
+  <si>
+    <t>51.81B</t>
+  </si>
+  <si>
+    <t>Penn National Gaming, Inc</t>
+  </si>
+  <si>
+    <t>18.43▲</t>
+  </si>
+  <si>
+    <t>+0.25 (+1.38%)</t>
+  </si>
+  <si>
+    <t>2.13B</t>
+  </si>
+  <si>
+    <t>Pinnacle West Capital Corporation</t>
+  </si>
+  <si>
+    <t>73.87▲</t>
+  </si>
+  <si>
+    <t>+2.11 (+2.94%)</t>
+  </si>
+  <si>
+    <t>8.07B</t>
+  </si>
+  <si>
+    <t>Sysco Corporation</t>
+  </si>
+  <si>
+    <t>53.29▲</t>
+  </si>
+  <si>
+    <t>+1.01 (+1.93%)</t>
+  </si>
+  <si>
+    <t>26.54B</t>
+  </si>
+  <si>
+    <t>WTB.L</t>
+  </si>
+  <si>
+    <t>RSA.L</t>
+  </si>
+  <si>
+    <t>RR.L</t>
+  </si>
+  <si>
+    <t>PSN.L</t>
+  </si>
+  <si>
+    <t>JET.L</t>
+  </si>
+  <si>
+    <t>INF.L</t>
+  </si>
+  <si>
+    <t>EZJ.L</t>
+  </si>
+  <si>
+    <t>ANTO.L</t>
+  </si>
+  <si>
+    <t>UK Strategy Stocks Selection</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>American Airlines Group Inc</t>
+  </si>
+  <si>
+    <t>9.175▼</t>
+  </si>
+  <si>
+    <t>-0.475 (-4.92%)</t>
+  </si>
+  <si>
+    <t>4.08B</t>
+  </si>
+  <si>
+    <t>Carnival Corporation &amp; Plc</t>
+  </si>
+  <si>
+    <t>12.30▼</t>
+  </si>
+  <si>
+    <t>-0.89 (-6.75%)</t>
+  </si>
+  <si>
+    <t>10.83B</t>
+  </si>
+  <si>
+    <t>CDW Corporation</t>
+  </si>
+  <si>
+    <t>99.99▼</t>
+  </si>
+  <si>
+    <t>-1.99 (-1.95%)</t>
+  </si>
+  <si>
+    <t>14.94B</t>
+  </si>
+  <si>
+    <t>43.305▲</t>
+  </si>
+  <si>
+    <t>+0.085 (+0.20%)</t>
+  </si>
+  <si>
+    <t>183.71B</t>
+  </si>
+  <si>
+    <t>Cognizant Technology Solutions Corporation</t>
+  </si>
+  <si>
+    <t>51.495▼</t>
+  </si>
+  <si>
+    <t>-1.715 (-3.22%)</t>
+  </si>
+  <si>
+    <t>28.76B</t>
+  </si>
+  <si>
+    <t>Quest Diagnostics Incorporated</t>
+  </si>
+  <si>
+    <t>108.115▲</t>
+  </si>
+  <si>
+    <t>+0.295 (+0.27%)</t>
+  </si>
+  <si>
+    <t>14.42B</t>
+  </si>
+  <si>
+    <t>79.34▲</t>
+  </si>
+  <si>
+    <t>+0.43 (+0.54%)</t>
+  </si>
+  <si>
+    <t>9.88B</t>
+  </si>
+  <si>
+    <t>Edison International</t>
+  </si>
+  <si>
+    <t>57.78▲</t>
+  </si>
+  <si>
+    <t>+1.37 (+2.43%)</t>
+  </si>
+  <si>
+    <t>20.51B</t>
+  </si>
+  <si>
+    <t>Expedia Group, Inc</t>
+  </si>
+  <si>
+    <t>63.29▼</t>
+  </si>
+  <si>
+    <t>-1.70 (-2.62%)</t>
+  </si>
+  <si>
+    <t>9.53B</t>
+  </si>
+  <si>
+    <t>Lowe's Companies, Inc</t>
+  </si>
+  <si>
+    <t>112.99▲</t>
+  </si>
+  <si>
+    <t>+1.75 (+1.57%)</t>
+  </si>
+  <si>
+    <t>85.60B</t>
+  </si>
+  <si>
+    <t>Microchip Technology Incorporated</t>
+  </si>
+  <si>
+    <t>85.47▼</t>
+  </si>
+  <si>
+    <t>-0.52 (-0.60%)</t>
+  </si>
+  <si>
+    <t>21.61B</t>
+  </si>
+  <si>
+    <t>Medtronic plc</t>
+  </si>
+  <si>
+    <t>94.83▼</t>
+  </si>
+  <si>
+    <t>-0.37 (-0.39%)</t>
+  </si>
+  <si>
+    <t>132.33B</t>
+  </si>
+  <si>
+    <t>Todays Risk</t>
+  </si>
+  <si>
+    <t>No of Scripts</t>
+  </si>
+  <si>
+    <t>Each Script Risk</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,6 +1167,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -876,7 +1214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1218,13 +1556,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1364,6 +1712,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1397,9 +1800,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
@@ -1738,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S41"/>
+  <dimension ref="B1:S49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="I4" sqref="I4:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1759,24 +2172,24 @@
   <sheetData>
     <row r="1" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="I2" s="65" t="s">
+      <c r="B2" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="P2" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="I2" s="94" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="P2" s="94" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
     </row>
     <row r="3" spans="2:19" ht="30" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -1832,315 +2245,307 @@
         <f>VLOOKUP(B4,STOCKS!B:E,4,)</f>
         <v>1.1869999999999998</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="21">
+      <c r="I4" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="108">
         <f>VLOOKUP(I4,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K4" s="20">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="K4" s="109">
         <f>VLOOKUP(I4,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L4" s="20">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="L4" s="109">
         <f>VLOOKUP(I4,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
+        <v>3.8639250000000001</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="21">
+        <v>289</v>
+      </c>
+      <c r="Q4" s="21" t="e">
         <f>VLOOKUP(P4,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R4" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="R4" s="20" t="e">
         <f>VLOOKUP(P4,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S4" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="S4" s="20" t="e">
         <f>VLOOKUP(P4,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C5" s="21">
         <f>VLOOKUP(B5,STOCKS!B:E,2,)</f>
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="20">
         <f>VLOOKUP(B5,STOCKS!B:E,3,)</f>
-        <v>2.6019999999999999</v>
+        <v>2.4889999999999999</v>
       </c>
       <c r="E5" s="20">
         <f>VLOOKUP(B5,STOCKS!B:E,4,)</f>
-        <v>0.98110000000000008</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" s="21">
+        <v>0.74449999999999994</v>
+      </c>
+      <c r="I5" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="108">
         <f>VLOOKUP(I5,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K5" s="20">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K5" s="109">
         <f>VLOOKUP(I5,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L5" s="20">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="L5" s="109">
         <f>VLOOKUP(I5,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
+        <v>1.1510060000000002</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="21">
+        <v>294</v>
+      </c>
+      <c r="Q5" s="21" t="e">
         <f>VLOOKUP(P5,'UK-STOCKS'!B:E,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R5" s="20" t="e">
+        <f>VLOOKUP(P5,'UK-STOCKS'!B:E,3,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S5" s="20" t="e">
+        <f>VLOOKUP(P5,'UK-STOCKS'!B:E,4,)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="23"/>
+      <c r="C6" s="21" t="e">
+        <f>VLOOKUP(B6,STOCKS!B:E,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="20" t="e">
+        <f>VLOOKUP(B6,STOCKS!B:E,3,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="20" t="e">
+        <f>VLOOKUP(B6,STOCKS!B:E,4,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" s="108">
+        <f>VLOOKUP(I6,'US-STOCKS'!B:E,2,)</f>
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K6" s="109">
+        <f>VLOOKUP(I6,'US-STOCKS'!B:E,3,)</f>
+        <v>2.516</v>
+      </c>
+      <c r="L6" s="109">
+        <f>VLOOKUP(I6,'US-STOCKS'!B:E,4,)</f>
+        <v>1.0076359999999998</v>
+      </c>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="21" t="e">
+        <f>VLOOKUP(P6,'UK-STOCKS'!B:E,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R6" s="20" t="e">
+        <f>VLOOKUP(P6,'UK-STOCKS'!B:E,3,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S6" s="20" t="e">
+        <f>VLOOKUP(P6,'UK-STOCKS'!B:E,4,)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="23"/>
+      <c r="C7" s="21" t="e">
+        <f>VLOOKUP(B7,STOCKS!B:E,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="20" t="e">
+        <f>VLOOKUP(B7,STOCKS!B:E,3,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="20" t="e">
+        <f>VLOOKUP(B7,STOCKS!B:E,4,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="J7" s="108">
+        <f>VLOOKUP(I7,'US-STOCKS'!B:E,2,)</f>
         <v>0.6</v>
       </c>
-      <c r="R5" s="20">
-        <f>VLOOKUP(P5,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S5" s="20">
-        <f>VLOOKUP(P5,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="21">
-        <f>VLOOKUP(B6,STOCKS!B:E,2,)</f>
-        <v>0.48280000000000001</v>
-      </c>
-      <c r="D6" s="20">
-        <f>VLOOKUP(B6,STOCKS!B:E,3,)</f>
-        <v>2.089</v>
-      </c>
-      <c r="E6" s="20">
-        <f>VLOOKUP(B6,STOCKS!B:E,4,)</f>
-        <v>0.49136919999999995</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="21">
-        <f>VLOOKUP(I6,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K6" s="20">
-        <f>VLOOKUP(I6,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L6" s="20">
-        <f>VLOOKUP(I6,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="21">
-        <f>VLOOKUP(P6,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R6" s="20">
-        <f>VLOOKUP(P6,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S6" s="20">
-        <f>VLOOKUP(P6,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="21">
-        <f>VLOOKUP(B7,STOCKS!B:E,2,)</f>
-        <v>0.56520000000000004</v>
-      </c>
-      <c r="D7" s="20">
-        <f>VLOOKUP(B7,STOCKS!B:E,3,)</f>
-        <v>1.45</v>
-      </c>
-      <c r="E7" s="20">
-        <f>VLOOKUP(B7,STOCKS!B:E,4,)</f>
-        <v>0.38474000000000008</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="21">
-        <f>VLOOKUP(I7,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K7" s="20">
+      <c r="K7" s="109">
         <f>VLOOKUP(I7,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L7" s="20">
+        <v>2.02</v>
+      </c>
+      <c r="L7" s="109">
         <f>VLOOKUP(I7,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
+        <v>0.81199999999999994</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="21">
+        <v>295</v>
+      </c>
+      <c r="Q7" s="21" t="e">
         <f>VLOOKUP(P7,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R7" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="R7" s="20" t="e">
         <f>VLOOKUP(P7,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S7" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="S7" s="20" t="e">
         <f>VLOOKUP(P7,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="B8" s="23"/>
+      <c r="C8" s="21" t="e">
         <f>VLOOKUP(B8,STOCKS!B:E,2,)</f>
-        <v>0.60870000000000002</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="20" t="e">
         <f>VLOOKUP(B8,STOCKS!B:E,3,)</f>
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="E8" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="20" t="e">
         <f>VLOOKUP(B8,STOCKS!B:E,4,)</f>
-        <v>0.40305349999999995</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="69">
         <f>VLOOKUP(I8,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K8" s="20">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="K8" s="70">
         <f>VLOOKUP(I8,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L8" s="20">
+        <v>1.905</v>
+      </c>
+      <c r="L8" s="70">
         <f>VLOOKUP(I8,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="21">
+        <v>0.60268849999999985</v>
+      </c>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="21" t="e">
         <f>VLOOKUP(P8,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R8" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="20" t="e">
         <f>VLOOKUP(P8,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S8" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="S8" s="20" t="e">
         <f>VLOOKUP(P8,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C9" s="21">
         <f>VLOOKUP(B9,STOCKS!B:E,2,)</f>
-        <v>0.5</v>
+        <v>0.56520000000000004</v>
       </c>
       <c r="D9" s="20">
         <f>VLOOKUP(B9,STOCKS!B:E,3,)</f>
-        <v>2.4889999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="E9" s="20">
         <f>VLOOKUP(B9,STOCKS!B:E,4,)</f>
-        <v>0.74449999999999994</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="21">
+        <v>0.38474000000000008</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="69">
         <f>VLOOKUP(I9,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K9" s="20">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="K9" s="70">
         <f>VLOOKUP(I9,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L9" s="20">
+        <v>1.655</v>
+      </c>
+      <c r="L9" s="70">
         <f>VLOOKUP(I9,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
+        <v>0.47618000000000016</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="21">
+        <v>292</v>
+      </c>
+      <c r="Q9" s="21" t="e">
         <f>VLOOKUP(P9,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R9" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="R9" s="20" t="e">
         <f>VLOOKUP(P9,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S9" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="S9" s="20" t="e">
         <f>VLOOKUP(P9,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
-      <c r="C10" s="21" t="e">
+      <c r="B10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="21">
         <f>VLOOKUP(B10,STOCKS!B:E,2,)</f>
+        <v>0.48280000000000001</v>
+      </c>
+      <c r="D10" s="20">
+        <f>VLOOKUP(B10,STOCKS!B:E,3,)</f>
+        <v>2.089</v>
+      </c>
+      <c r="E10" s="20">
+        <f>VLOOKUP(B10,STOCKS!B:E,4,)</f>
+        <v>0.49136919999999995</v>
+      </c>
+      <c r="I10" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="69">
+        <f>VLOOKUP(I10,'US-STOCKS'!B:E,2,)</f>
+        <v>0.42</v>
+      </c>
+      <c r="K10" s="70">
+        <f>VLOOKUP(I10,'US-STOCKS'!B:E,3,)</f>
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="L10" s="70">
+        <f>VLOOKUP(I10,'US-STOCKS'!B:E,4,)</f>
+        <v>0.38263999999999987</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q10" s="21" t="e">
+        <f>VLOOKUP(P10,'UK-STOCKS'!B:E,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="20" t="e">
-        <f>VLOOKUP(B10,STOCKS!B:E,3,)</f>
+      <c r="R10" s="20" t="e">
+        <f>VLOOKUP(P10,'UK-STOCKS'!B:E,3,)</f>
         <v>#N/A</v>
       </c>
-      <c r="E10" s="20" t="e">
-        <f>VLOOKUP(B10,STOCKS!B:E,4,)</f>
+      <c r="S10" s="20" t="e">
+        <f>VLOOKUP(P10,'UK-STOCKS'!B:E,4,)</f>
         <v>#N/A</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="21">
-        <f>VLOOKUP(I10,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K10" s="20">
-        <f>VLOOKUP(I10,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L10" s="20">
-        <f>VLOOKUP(I10,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="21">
-        <f>VLOOKUP(P10,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R10" s="20">
-        <f>VLOOKUP(P10,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S10" s="20">
-        <f>VLOOKUP(P10,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
@@ -2157,35 +2562,33 @@
         <f>VLOOKUP(B11,STOCKS!B:E,4,)</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="21">
+      <c r="I11" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="69">
         <f>VLOOKUP(I11,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K11" s="20">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="K11" s="70">
         <f>VLOOKUP(I11,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L11" s="20">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="L11" s="70">
         <f>VLOOKUP(I11,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="21">
+        <v>0.36502400000000002</v>
+      </c>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="21" t="e">
         <f>VLOOKUP(P11,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R11" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="R11" s="20" t="e">
         <f>VLOOKUP(P11,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S11" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="S11" s="20" t="e">
         <f>VLOOKUP(P11,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
@@ -2202,125 +2605,127 @@
         <f>VLOOKUP(B12,STOCKS!B:E,4,)</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="21">
+      <c r="I12" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="69">
         <f>VLOOKUP(I12,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K12" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="K12" s="70">
         <f>VLOOKUP(I12,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L12" s="20">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="L12" s="70">
         <f>VLOOKUP(I12,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="21">
+        <v>0.36124999999999996</v>
+      </c>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="21" t="e">
         <f>VLOOKUP(P12,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R12" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="R12" s="20" t="e">
         <f>VLOOKUP(P12,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S12" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="S12" s="20" t="e">
         <f>VLOOKUP(P12,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
-      <c r="C13" s="21" t="e">
+      <c r="B13" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="21">
         <f>VLOOKUP(B13,STOCKS!B:E,2,)</f>
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="D13" s="20">
+        <f>VLOOKUP(B13,STOCKS!B:E,3,)</f>
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="E13" s="20">
+        <f>VLOOKUP(B13,STOCKS!B:E,4,)</f>
+        <v>0.40305349999999995</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="69">
+        <f>VLOOKUP(I13,'US-STOCKS'!B:E,2,)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="70">
+        <f>VLOOKUP(I13,'US-STOCKS'!B:E,3,)</f>
+        <v>1.591</v>
+      </c>
+      <c r="L13" s="70">
+        <f>VLOOKUP(I13,'US-STOCKS'!B:E,4,)</f>
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q13" s="21" t="e">
+        <f>VLOOKUP(P13,'UK-STOCKS'!B:E,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="D13" s="20" t="e">
-        <f>VLOOKUP(B13,STOCKS!B:E,3,)</f>
+      <c r="R13" s="20" t="e">
+        <f>VLOOKUP(P13,'UK-STOCKS'!B:E,3,)</f>
         <v>#N/A</v>
       </c>
-      <c r="E13" s="20" t="e">
-        <f>VLOOKUP(B13,STOCKS!B:E,4,)</f>
+      <c r="S13" s="20" t="e">
+        <f>VLOOKUP(P13,'UK-STOCKS'!B:E,4,)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="21">
-        <f>VLOOKUP(I13,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K13" s="20">
-        <f>VLOOKUP(I13,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L13" s="20">
-        <f>VLOOKUP(I13,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="21">
-        <f>VLOOKUP(P13,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R13" s="20">
-        <f>VLOOKUP(P13,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S13" s="20">
-        <f>VLOOKUP(P13,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
-      </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
-      <c r="C14" s="21" t="e">
+      <c r="B14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="21">
         <f>VLOOKUP(B14,STOCKS!B:E,2,)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D14" s="20">
+        <f>VLOOKUP(B14,STOCKS!B:E,3,)</f>
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="E14" s="20">
+        <f>VLOOKUP(B14,STOCKS!B:E,4,)</f>
+        <v>0.98110000000000008</v>
+      </c>
+      <c r="I14" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="69">
+        <f>VLOOKUP(I14,'US-STOCKS'!B:E,2,)</f>
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="K14" s="70">
+        <f>VLOOKUP(I14,'US-STOCKS'!B:E,3,)</f>
+        <v>1.714</v>
+      </c>
+      <c r="L14" s="70">
+        <f>VLOOKUP(I14,'US-STOCKS'!B:E,4,)</f>
+        <v>0.26743800000000006</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q14" s="21" t="e">
+        <f>VLOOKUP(P14,'UK-STOCKS'!B:E,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="D14" s="20" t="e">
-        <f>VLOOKUP(B14,STOCKS!B:E,3,)</f>
+      <c r="R14" s="20" t="e">
+        <f>VLOOKUP(P14,'UK-STOCKS'!B:E,3,)</f>
         <v>#N/A</v>
       </c>
-      <c r="E14" s="20" t="e">
-        <f>VLOOKUP(B14,STOCKS!B:E,4,)</f>
+      <c r="S14" s="20" t="e">
+        <f>VLOOKUP(P14,'UK-STOCKS'!B:E,4,)</f>
         <v>#N/A</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="21">
-        <f>VLOOKUP(I14,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K14" s="20">
-        <f>VLOOKUP(I14,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L14" s="20">
-        <f>VLOOKUP(I14,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="21">
-        <f>VLOOKUP(P14,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R14" s="20">
-        <f>VLOOKUP(P14,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S14" s="20">
-        <f>VLOOKUP(P14,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
@@ -2337,35 +2742,35 @@
         <f>VLOOKUP(B15,STOCKS!B:E,4,)</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="21">
+      <c r="I15" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="69">
         <f>VLOOKUP(I15,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K15" s="20">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="K15" s="70">
         <f>VLOOKUP(I15,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L15" s="20">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="L15" s="70">
         <f>VLOOKUP(I15,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
+        <v>0.22959299999999994</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q15" s="21">
+        <v>296</v>
+      </c>
+      <c r="Q15" s="21" t="e">
         <f>VLOOKUP(P15,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R15" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="R15" s="20" t="e">
         <f>VLOOKUP(P15,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S15" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="S15" s="20" t="e">
         <f>VLOOKUP(P15,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
@@ -2382,35 +2787,22 @@
         <f>VLOOKUP(B16,STOCKS!B:E,4,)</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" s="21">
-        <f>VLOOKUP(I16,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K16" s="20">
-        <f>VLOOKUP(I16,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L16" s="20">
-        <f>VLOOKUP(I16,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="21">
+      <c r="I16" s="106"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="21" t="e">
         <f>VLOOKUP(P16,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R16" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="R16" s="20" t="e">
         <f>VLOOKUP(P16,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S16" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="S16" s="20" t="e">
         <f>VLOOKUP(P16,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
@@ -2427,35 +2819,22 @@
         <f>VLOOKUP(B17,STOCKS!B:E,4,)</f>
         <v>#N/A</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="21">
-        <f>VLOOKUP(I17,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K17" s="20">
-        <f>VLOOKUP(I17,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L17" s="20">
-        <f>VLOOKUP(I17,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="21">
+      <c r="I17" s="106"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="21" t="e">
         <f>VLOOKUP(P17,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R17" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="R17" s="20" t="e">
         <f>VLOOKUP(P17,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S17" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="S17" s="20" t="e">
         <f>VLOOKUP(P17,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
@@ -2472,35 +2851,22 @@
         <f>VLOOKUP(B18,STOCKS!B:E,4,)</f>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="21">
-        <f>VLOOKUP(I18,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K18" s="20">
-        <f>VLOOKUP(I18,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L18" s="20">
-        <f>VLOOKUP(I18,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q18" s="21">
+      <c r="I18" s="106"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="21" t="e">
         <f>VLOOKUP(P18,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R18" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="R18" s="20" t="e">
         <f>VLOOKUP(P18,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S18" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="S18" s="20" t="e">
         <f>VLOOKUP(P18,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
@@ -2517,35 +2883,22 @@
         <f>VLOOKUP(B19,STOCKS!B:E,4,)</f>
         <v>#N/A</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" s="21">
-        <f>VLOOKUP(I19,'US-STOCKS'!B:E,2,)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="K19" s="20">
-        <f>VLOOKUP(I19,'US-STOCKS'!B:E,3,)</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L19" s="20">
-        <f>VLOOKUP(I19,'US-STOCKS'!B:E,4,)</f>
-        <v>0.22684399999999993</v>
-      </c>
-      <c r="P19" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="21">
+      <c r="I19" s="106"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="21" t="e">
         <f>VLOOKUP(P19,'UK-STOCKS'!B:E,2,)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R19" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="R19" s="20" t="e">
         <f>VLOOKUP(P19,'UK-STOCKS'!B:E,3,)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="S19" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="S19" s="20" t="e">
         <f>VLOOKUP(P19,'UK-STOCKS'!B:E,4,)</f>
-        <v>1.1059999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
@@ -2572,94 +2925,174 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="77"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
+      <c r="K27" s="93"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
+      <c r="K28" s="93"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="93"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="93"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="93"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="J32" s="66"/>
+      <c r="K32" s="93"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="J33" s="66"/>
+      <c r="K33" s="93"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="J34" s="66"/>
+      <c r="K34" s="93"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="J35" s="66"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="77"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="J36" s="66"/>
+      <c r="K36" s="93"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="J37" s="66"/>
+      <c r="K37" s="93"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="J38" s="66"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="77"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="J39" s="66"/>
+      <c r="K39" s="93"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="J40" s="66"/>
+      <c r="K40" s="93"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
+      <c r="K41" s="93"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="93"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="93"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="93"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="93"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K46" s="93"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="93"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="93"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B3:S3" xr:uid="{B697D284-C0D6-274F-9FA1-FC98033CA60E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:S19">
+      <sortCondition descending="1" ref="L3:L19"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="11">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="P2:S2"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="K44:K46"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="https://chartink.com/stocks/TECHM.html" xr:uid="{9D21B9A6-869D-9245-80B0-FF9D5592B053}"/>
-    <hyperlink ref="B9" r:id="rId2" display="https://chartink.com/stocks/TORNTPHARM.html" xr:uid="{AF7BCF25-EA38-E247-80C1-048ED93ED7D7}"/>
+    <hyperlink ref="B13" r:id="rId1" display="https://chartink.com/stocks/TECHM.html" xr:uid="{9D21B9A6-869D-9245-80B0-FF9D5592B053}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://chartink.com/stocks/TORNTPHARM.html" xr:uid="{AF7BCF25-EA38-E247-80C1-048ED93ED7D7}"/>
+    <hyperlink ref="I9" r:id="rId3" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=APA" xr:uid="{EA476A58-A050-7A4B-89A5-7C48FF25E318}"/>
+    <hyperlink ref="I10" r:id="rId4" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=BLK" xr:uid="{7AD7E8C0-B6A0-7C45-8FBA-AF9F8093BABB}"/>
+    <hyperlink ref="I14" r:id="rId5" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=BSX" xr:uid="{0BAA7532-2EFA-E840-939F-506D2035C472}"/>
+    <hyperlink ref="I5" r:id="rId6" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=CSCO" xr:uid="{7207D21B-B6BB-6D47-9ED7-6EEA917D604D}"/>
+    <hyperlink ref="I11" r:id="rId7" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=DLR" xr:uid="{115BA8D5-8C6F-3B4F-B23A-2947B4459AE5}"/>
+    <hyperlink ref="I15" r:id="rId8" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=DVA" xr:uid="{0FB92569-1314-E34C-9302-86005025018A}"/>
+    <hyperlink ref="I13" r:id="rId9" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=KHC" xr:uid="{48D83EA5-75E2-4F44-984D-103ADD4188AA}"/>
+    <hyperlink ref="I8" r:id="rId10" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=NEE" xr:uid="{88DD7939-9670-D445-BA49-3D70804E4047}"/>
+    <hyperlink ref="I12" r:id="rId11" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=NEM" xr:uid="{83D6B9F1-FFFE-1B49-9EB6-AB2CB493BFF2}"/>
+    <hyperlink ref="I7" r:id="rId12" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=PENN" xr:uid="{9FFE27FE-8347-AD49-BB9E-91A16842874C}"/>
+    <hyperlink ref="I4" r:id="rId13" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=PNW" xr:uid="{E718DD09-8CC8-E649-B9A8-801643F0F29F}"/>
+    <hyperlink ref="I6" r:id="rId14" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=SYY" xr:uid="{BA206B38-5077-664D-B080-D28340E3EFED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -2682,12 +3115,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="2:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
@@ -3547,7 +3980,7 @@
   <dimension ref="B1:E57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3561,12 +3994,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="2:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
@@ -3584,7 +4017,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="5">
         <v>0.46339999999999998</v>
@@ -3599,7 +4032,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5">
         <v>0.53569999999999995</v>
@@ -3629,7 +4062,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="5">
         <v>0.5</v>
@@ -3644,7 +4077,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="5">
         <v>0.46510000000000001</v>
@@ -3659,7 +4092,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="5">
         <v>0.375</v>
@@ -3674,7 +4107,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="5">
         <v>0.46879999999999999</v>
@@ -3719,7 +4152,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="5">
         <v>0.43180000000000002</v>
@@ -3734,7 +4167,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5">
         <v>0.52939999999999998</v>
@@ -3749,7 +4182,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="5">
         <v>0.52939999999999998</v>
@@ -3764,7 +4197,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5">
         <v>0.4667</v>
@@ -3779,7 +4212,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="5">
         <v>0.52780000000000005</v>
@@ -3809,7 +4242,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="5">
         <v>0.53659999999999997</v>
@@ -3884,7 +4317,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="5">
         <v>0.52939999999999998</v>
@@ -3899,7 +4332,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5">
         <v>0.56669999999999998</v>
@@ -3914,7 +4347,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="5">
         <v>0.4884</v>
@@ -3974,7 +4407,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="5">
         <v>0.51280000000000003</v>
@@ -3989,7 +4422,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="37" t="s">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="C30" s="5">
         <v>0.5161</v>
@@ -4019,7 +4452,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="5">
         <v>0.5</v>
@@ -4034,7 +4467,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="5">
         <v>0.5333</v>
@@ -4049,7 +4482,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="5">
         <v>0.44679999999999997</v>
@@ -4064,7 +4497,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="5">
         <v>0.4667</v>
@@ -4079,7 +4512,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="5">
         <v>0.50980000000000003</v>
@@ -4094,7 +4527,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="5">
         <v>0.55000000000000004</v>
@@ -4139,7 +4572,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="5">
         <v>0.52939999999999998</v>
@@ -4281,8 +4714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94888E44-E349-6C44-8612-6A0323ABF7F3}">
   <dimension ref="B1:E130"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4296,12 +4729,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="2:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
@@ -4319,7 +4752,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="5">
         <v>0.47699999999999998</v>
@@ -4334,7 +4767,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="5">
         <v>0.55800000000000005</v>
@@ -4349,7 +4782,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5">
         <v>0.54100000000000004</v>
@@ -4364,7 +4797,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="5">
         <v>0.5</v>
@@ -4379,7 +4812,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="5">
         <v>0.69199999999999995</v>
@@ -4394,7 +4827,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="5">
         <v>0.71399999999999997</v>
@@ -4409,7 +4842,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="5">
         <v>0.6</v>
@@ -4424,787 +4857,787 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="C10" s="5">
-        <v>0.48199999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="9">
-        <v>2.335</v>
+        <v>4.3810000000000002</v>
       </c>
       <c r="E10" s="53">
         <f t="shared" si="0"/>
-        <v>0.60746999999999995</v>
+        <v>1.6905000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="5">
-        <v>0.51800000000000002</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="D11" s="9">
-        <v>1.764</v>
+        <v>2.335</v>
       </c>
       <c r="E11" s="53">
         <f t="shared" si="0"/>
-        <v>0.43175200000000002</v>
+        <v>0.60746999999999995</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="5">
-        <v>0.47599999999999998</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D12" s="9">
-        <v>2.286</v>
+        <v>1.764</v>
       </c>
       <c r="E12" s="53">
         <f t="shared" si="0"/>
+        <v>0.43175200000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="72">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D13" s="73">
+        <v>2.286</v>
+      </c>
+      <c r="E13" s="74">
+        <f t="shared" si="0"/>
         <v>0.56413599999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="5">
+    <row r="14" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="72">
         <v>0.55600000000000005</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="73">
         <v>1.655</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E14" s="74">
         <f t="shared" si="0"/>
         <v>0.47618000000000016</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>1.972</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E15" s="53">
         <f t="shared" si="0"/>
         <v>0.69701199999999974</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3.7290000000000001</v>
+      </c>
+      <c r="E16" s="53">
+        <f t="shared" si="0"/>
+        <v>1.1824335000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="5">
         <v>0.47899999999999998</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D17" s="9">
         <v>2.512</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E17" s="53">
         <f t="shared" si="0"/>
         <v>0.68224799999999985</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.85699999999999998</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D18" s="9">
         <v>10.193</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E18" s="53">
         <f t="shared" si="0"/>
         <v>8.5924009999999988</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="5">
+    <row r="19" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="72">
         <v>0.41</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D19" s="73">
         <v>1.508</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E19" s="74">
         <f t="shared" si="0"/>
         <v>2.8279999999999861E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="5">
+    <row r="20" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="72">
         <v>0.64500000000000002</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D20" s="73">
         <v>1.3340000000000001</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E20" s="74">
         <f t="shared" si="0"/>
         <v>0.50543000000000005</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="5">
+    <row r="21" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="72">
         <v>0.42</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D21" s="73">
         <v>2.2919999999999998</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E21" s="74">
         <f t="shared" si="0"/>
         <v>0.38263999999999987</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="5">
+    <row r="22" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="72">
         <v>0.64500000000000002</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D22" s="73">
         <v>1.4510000000000001</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E22" s="74">
         <f t="shared" si="0"/>
         <v>0.58089500000000005</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="5">
+    <row r="23" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="72">
         <v>0.46700000000000003</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D23" s="73">
         <v>1.714</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E23" s="74">
         <f t="shared" si="0"/>
         <v>0.26743800000000006</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="5">
+    <row r="24" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="72">
         <v>0.53300000000000003</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D24" s="73">
         <v>1.423</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E24" s="74">
         <f t="shared" si="0"/>
         <v>0.29145900000000013</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="5">
+    <row r="25" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="72">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D25" s="73">
         <v>1.702</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E25" s="74">
         <f t="shared" si="0"/>
         <v>0.48610000000000009</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="5">
+    <row r="26" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="72">
         <v>0.55600000000000005</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D26" s="73">
         <v>1.86</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E26" s="74">
         <f t="shared" si="0"/>
         <v>0.59016000000000024</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="5">
+    <row r="27" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="72">
         <v>0.58899999999999997</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D27" s="73">
         <v>3.0830000000000002</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E27" s="74">
         <f t="shared" si="0"/>
         <v>1.404887</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="5">
+    <row r="28" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="72">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D28" s="73">
         <v>2.5419999999999998</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E28" s="74">
         <f t="shared" si="0"/>
         <v>1.362514</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="5">
+    <row r="29" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="72">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D29" s="73">
         <v>2.0779999999999998</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E29" s="74">
         <f t="shared" si="0"/>
         <v>0.88681399999999977</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="5">
+    <row r="30" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="72">
         <v>0.55600000000000005</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D30" s="73">
         <v>2.6509999999999998</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E30" s="74">
         <f t="shared" si="0"/>
         <v>1.0299560000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="5">
+    <row r="31" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="72">
         <v>0.65400000000000003</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D31" s="73">
         <v>2.2890000000000001</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E31" s="74">
         <f t="shared" si="0"/>
         <v>1.1510060000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="5">
+    <row r="32" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="72">
         <v>0.52400000000000002</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D32" s="73">
         <v>2.4180000000000001</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E32" s="74">
         <f t="shared" si="0"/>
         <v>0.79103200000000018</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="5">
+    <row r="33" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="72">
         <v>0.58599999999999997</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D33" s="73">
         <v>1.5669999999999999</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E33" s="74">
         <f t="shared" si="0"/>
         <v>0.50426199999999988</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="5">
+    <row r="34" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="72">
         <v>0.55800000000000005</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D34" s="73">
         <v>1.5860000000000001</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E34" s="74">
         <f t="shared" si="0"/>
         <v>0.44298800000000016</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="37" t="s">
+    <row r="35" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="72">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D35" s="73">
+        <v>2.2290000000000001</v>
+      </c>
+      <c r="E35" s="74">
+        <f t="shared" ref="E35:E66" si="1">((1*C35)*D35)-(((100%-C35)*(1)))</f>
+        <v>0.69199600000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="5">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="D33" s="9">
-        <v>2.2290000000000001</v>
-      </c>
-      <c r="E33" s="53">
-        <f t="shared" si="0"/>
-        <v>0.69199600000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="37" t="s">
+      <c r="C36" s="72">
+        <v>0.625</v>
+      </c>
+      <c r="D36" s="73">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="E36" s="74">
+        <f t="shared" si="1"/>
+        <v>0.79749999999999988</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="E34" s="53">
-        <f t="shared" si="0"/>
-        <v>0.79749999999999988</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="37" t="s">
+      <c r="C37" s="72">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D37" s="73">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="E37" s="74">
+        <f t="shared" si="1"/>
+        <v>0.36502400000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="5">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="D35" s="9">
-        <v>1.8320000000000001</v>
-      </c>
-      <c r="E35" s="53">
-        <f t="shared" ref="E35:E66" si="1">((1*C35)*D35)-(((100%-C35)*(1)))</f>
-        <v>0.36502400000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="C38" s="5">
         <v>0.84699999999999998</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D38" s="9">
         <v>13.77</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E38" s="53">
         <f t="shared" si="1"/>
         <v>11.51019</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="5">
         <v>0.47899999999999998</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D39" s="9">
         <v>1.5669999999999999</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E39" s="53">
         <f t="shared" si="1"/>
         <v>0.22959299999999994</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1.657</v>
+      </c>
+      <c r="E40" s="53">
+        <f t="shared" si="1"/>
+        <v>0.70313700000000012</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="5">
         <v>0.4</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D41" s="9">
         <v>3.3050000000000002</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E41" s="53">
         <f t="shared" si="1"/>
         <v>0.72200000000000009</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="5">
         <v>0.52700000000000002</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D42" s="9">
         <v>2.1869999999999998</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E42" s="53">
         <f t="shared" si="1"/>
         <v>0.67954900000000007</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="5">
         <v>0.53900000000000003</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D43" s="9">
         <v>2.06</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E43" s="53">
         <f t="shared" si="1"/>
         <v>0.64934000000000014</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="5">
         <v>0.45400000000000001</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D44" s="9">
         <v>1.7010000000000001</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E44" s="53">
         <f t="shared" si="1"/>
         <v>0.22625400000000007</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="5">
         <v>0.54300000000000004</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D45" s="9">
         <v>1.643</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E45" s="53">
         <f t="shared" si="1"/>
         <v>0.43514900000000012</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="5">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D46" s="9">
         <v>1.603</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E46" s="53">
         <f t="shared" si="1"/>
         <v>0.73620100000000011</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="5">
         <v>0.52300000000000002</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D47" s="9">
         <v>2.1219999999999999</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E47" s="53">
         <f t="shared" si="1"/>
         <v>0.63280600000000009</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="5">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="5">
         <v>0.58599999999999997</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D48" s="9">
         <v>1.8480000000000001</v>
       </c>
-      <c r="E45" s="53">
+      <c r="E48" s="53">
         <f t="shared" si="1"/>
         <v>0.66892799999999986</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="5">
         <v>0.54500000000000004</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D49" s="9">
         <v>1.403</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E49" s="53">
         <f t="shared" si="1"/>
         <v>0.3096350000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="5">
         <v>0.68200000000000005</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D50" s="9">
         <v>2.7629999999999999</v>
       </c>
-      <c r="E47" s="53">
+      <c r="E50" s="53">
         <f t="shared" si="1"/>
         <v>1.5663659999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D51" s="9">
         <v>1.548</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E51" s="53">
         <f t="shared" si="1"/>
         <v>0.40140000000000009</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="5">
         <v>0.52200000000000002</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D52" s="9">
         <v>1.931</v>
       </c>
-      <c r="E49" s="53">
+      <c r="E52" s="53">
         <f t="shared" si="1"/>
         <v>0.52998200000000018</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="5">
         <v>0.47399999999999998</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D53" s="9">
         <v>1.87</v>
       </c>
-      <c r="E50" s="53">
+      <c r="E53" s="53">
         <f t="shared" si="1"/>
         <v>0.36038000000000003</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="5">
         <v>0.75</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D54" s="9">
         <v>1.966</v>
       </c>
-      <c r="E51" s="53">
+      <c r="E54" s="53">
         <f t="shared" si="1"/>
         <v>1.2244999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="5">
         <v>0.55600000000000005</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D55" s="9">
         <v>1.575</v>
       </c>
-      <c r="E52" s="53">
+      <c r="E55" s="53">
         <f t="shared" si="1"/>
         <v>0.43170000000000008</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="5">
         <v>0.52400000000000002</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D56" s="9">
         <v>4.1079999999999997</v>
       </c>
-      <c r="E53" s="53">
+      <c r="E56" s="53">
         <f t="shared" si="1"/>
         <v>1.6765919999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="5">
         <v>0.68200000000000005</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D57" s="9">
         <v>2</v>
       </c>
-      <c r="E54" s="53">
+      <c r="E57" s="53">
         <f t="shared" si="1"/>
         <v>1.0460000000000003</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="5">
         <v>0.55600000000000005</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D58" s="9">
         <v>1.7829999999999999</v>
       </c>
-      <c r="E55" s="53">
+      <c r="E58" s="53">
         <f t="shared" si="1"/>
         <v>0.54734800000000006</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="5">
         <v>0.65600000000000003</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D59" s="9">
         <v>2.9990000000000001</v>
       </c>
-      <c r="E56" s="53">
+      <c r="E59" s="53">
         <f t="shared" si="1"/>
         <v>1.6233440000000003</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="5">
         <v>0.56200000000000006</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D60" s="9">
         <v>1.48</v>
       </c>
-      <c r="E57" s="53">
+      <c r="E60" s="53">
         <f t="shared" si="1"/>
         <v>0.39376000000000011</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="5">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D61" s="9">
         <v>3.1190000000000002</v>
       </c>
-      <c r="E58" s="53">
+      <c r="E61" s="53">
         <f t="shared" si="1"/>
         <v>1.7473730000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="5">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="D59" s="9">
-        <v>2.577</v>
-      </c>
-      <c r="E59" s="53">
-        <f t="shared" si="1"/>
-        <v>1.3858590000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D60" s="9">
-        <v>2.1909999999999998</v>
-      </c>
-      <c r="E60" s="53">
-        <f t="shared" si="1"/>
-        <v>0.75505</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D61" s="9">
-        <v>3</v>
-      </c>
-      <c r="E61" s="53">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-    </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C62" s="5">
         <v>0.64</v>
@@ -5219,1007 +5652,1007 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C63" s="5">
-        <v>0.46700000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="D63" s="9">
-        <v>2.0880000000000001</v>
+        <v>3</v>
       </c>
       <c r="E63" s="53">
         <f t="shared" si="1"/>
-        <v>0.44209600000000016</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="37" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C64" s="5">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D64" s="9">
-        <v>1.591</v>
+        <v>2.1909999999999998</v>
       </c>
       <c r="E64" s="53">
         <f t="shared" si="1"/>
-        <v>0.29549999999999998</v>
+        <v>0.75505</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="37" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C65" s="5">
-        <v>0.46700000000000003</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D65" s="9">
-        <v>1.177</v>
+        <v>2.577</v>
       </c>
       <c r="E65" s="53">
         <f t="shared" si="1"/>
-        <v>1.665900000000009E-2</v>
+        <v>1.3858590000000002</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C66" s="5">
-        <v>0.61</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D66" s="9">
-        <v>1.7250000000000001</v>
+        <v>2.0880000000000001</v>
       </c>
       <c r="E66" s="53">
         <f t="shared" si="1"/>
-        <v>0.66225000000000012</v>
+        <v>0.44209600000000016</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C67" s="5">
-        <v>0.77800000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D67" s="9">
-        <v>11.053000000000001</v>
+        <v>1.591</v>
       </c>
       <c r="E67" s="53">
         <f t="shared" ref="E67:E98" si="2">((1*C67)*D67)-(((100%-C67)*(1)))</f>
-        <v>8.3772340000000014</v>
+        <v>0.29549999999999998</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="37" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C68" s="5">
-        <v>0.5</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D68" s="9">
-        <v>1.506</v>
+        <v>1.177</v>
       </c>
       <c r="E68" s="53">
         <f t="shared" si="2"/>
-        <v>0.253</v>
+        <v>1.665900000000009E-2</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="37" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C69" s="5">
-        <v>0.46100000000000002</v>
+        <v>0.61</v>
       </c>
       <c r="D69" s="9">
-        <v>1.76</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="E69" s="53">
         <f t="shared" si="2"/>
-        <v>0.27236000000000016</v>
+        <v>0.66225000000000012</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="37" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C70" s="5">
-        <v>0.5</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="D70" s="9">
-        <v>1.708</v>
+        <v>11.053000000000001</v>
       </c>
       <c r="E70" s="53">
         <f t="shared" si="2"/>
-        <v>0.35399999999999998</v>
+        <v>8.3772340000000014</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="37" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C71" s="5">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="D71" s="9">
-        <v>1.841</v>
+        <v>1.506</v>
       </c>
       <c r="E71" s="53">
         <f t="shared" si="2"/>
-        <v>0.33526999999999996</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C72" s="5">
-        <v>0.5</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D72" s="9">
-        <v>1.887</v>
+        <v>1.76</v>
       </c>
       <c r="E72" s="53">
         <f t="shared" si="2"/>
-        <v>0.44350000000000001</v>
+        <v>0.27236000000000016</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C73" s="5">
-        <v>0.55600000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="D73" s="9">
-        <v>1.833</v>
+        <v>1.708</v>
       </c>
       <c r="E73" s="53">
         <f t="shared" si="2"/>
-        <v>0.57514800000000021</v>
+        <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C74" s="5">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="D74" s="9">
-        <v>1.4470000000000001</v>
+        <v>1.841</v>
       </c>
       <c r="E74" s="53">
         <f t="shared" si="2"/>
-        <v>0.22350000000000003</v>
+        <v>0.33526999999999996</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C75" s="5">
-        <v>0.69599999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="D75" s="9">
-        <v>1.867</v>
+        <v>1.887</v>
       </c>
       <c r="E75" s="53">
         <f t="shared" si="2"/>
-        <v>0.99543199999999987</v>
+        <v>0.44350000000000001</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C76" s="5">
-        <v>0.48499999999999999</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D76" s="9">
-        <v>1.944</v>
+        <v>1.833</v>
       </c>
       <c r="E76" s="53">
         <f t="shared" si="2"/>
-        <v>0.42783999999999989</v>
+        <v>0.57514800000000021</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="37" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C77" s="5">
-        <v>0.83299999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="D77" s="9">
-        <v>9.18</v>
+        <v>1.4470000000000001</v>
       </c>
       <c r="E77" s="53">
         <f t="shared" si="2"/>
-        <v>7.47994</v>
+        <v>0.22350000000000003</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="37" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C78" s="5">
-        <v>0.53800000000000003</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="D78" s="9">
-        <v>2.3580000000000001</v>
+        <v>1.867</v>
       </c>
       <c r="E78" s="53">
         <f t="shared" si="2"/>
-        <v>0.8066040000000001</v>
+        <v>0.99543199999999987</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="37" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C79" s="5">
-        <v>0.5</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="D79" s="9">
-        <v>1.877</v>
+        <v>1.944</v>
       </c>
       <c r="E79" s="53">
         <f t="shared" si="2"/>
-        <v>0.4385</v>
+        <v>0.42783999999999989</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="37" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C80" s="5">
-        <v>0.48799999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D80" s="9">
-        <v>1.6910000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="E80" s="53">
         <f t="shared" si="2"/>
-        <v>0.31320800000000004</v>
+        <v>7.47994</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="37" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C81" s="5">
-        <v>0.52200000000000002</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D81" s="9">
-        <v>2.052</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="E81" s="53">
         <f t="shared" si="2"/>
-        <v>0.59314400000000012</v>
+        <v>0.8066040000000001</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="37" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C82" s="5">
-        <v>0.47060000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D82" s="9">
-        <v>1.966</v>
+        <v>1.877</v>
       </c>
       <c r="E82" s="53">
         <f t="shared" si="2"/>
-        <v>0.39579960000000003</v>
+        <v>0.4385</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C83" s="5">
-        <v>0.53800000000000003</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D83" s="9">
-        <v>1.7869999999999999</v>
+        <v>1.6910000000000001</v>
       </c>
       <c r="E83" s="53">
         <f t="shared" si="2"/>
-        <v>0.49940600000000002</v>
+        <v>0.31320800000000004</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C84" s="5">
-        <v>0.55169999999999997</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D84" s="9">
-        <v>1.905</v>
+        <v>2.052</v>
       </c>
       <c r="E84" s="53">
         <f t="shared" si="2"/>
-        <v>0.60268849999999985</v>
+        <v>0.59314400000000012</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="37" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C85" s="5">
-        <v>0.45</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="D85" s="9">
-        <v>2.0249999999999999</v>
+        <v>1.966</v>
       </c>
       <c r="E85" s="53">
         <f t="shared" si="2"/>
-        <v>0.36124999999999996</v>
+        <v>0.39579960000000003</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C86" s="5">
-        <v>0.55600000000000005</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D86" s="9">
-        <v>2.4249999999999998</v>
+        <v>1.7869999999999999</v>
       </c>
       <c r="E86" s="53">
         <f t="shared" si="2"/>
-        <v>0.9043000000000001</v>
+        <v>0.49940600000000002</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C87" s="5">
-        <v>0.55200000000000005</v>
+        <v>0.55169999999999997</v>
       </c>
       <c r="D87" s="9">
-        <v>1.7330000000000001</v>
+        <v>1.905</v>
       </c>
       <c r="E87" s="53">
         <f t="shared" si="2"/>
-        <v>0.50861600000000018</v>
+        <v>0.60268849999999985</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C88" s="5">
-        <v>0.53300000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="D88" s="9">
-        <v>2.1480000000000001</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="E88" s="53">
         <f t="shared" si="2"/>
-        <v>0.67788400000000026</v>
+        <v>0.36124999999999996</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="37" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C89" s="5">
-        <v>0.8</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D89" s="9">
-        <v>19.366</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="E89" s="53">
         <f t="shared" si="2"/>
-        <v>15.292800000000002</v>
+        <v>0.9043000000000001</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="37" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C90" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="D90" s="9">
-        <v>1.7430000000000001</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="E90" s="53">
         <f t="shared" si="2"/>
-        <v>0.56350999999999996</v>
+        <v>0.50861600000000018</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C91" s="5">
-        <v>0.64700000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D91" s="9">
-        <v>1.853</v>
+        <v>2.1480000000000001</v>
       </c>
       <c r="E91" s="53">
         <f t="shared" si="2"/>
-        <v>0.84589099999999995</v>
+        <v>0.67788400000000026</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C92" s="5">
-        <v>0.76900000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="D92" s="9">
-        <v>5.3250000000000002</v>
+        <v>19.366</v>
       </c>
       <c r="E92" s="53">
         <f t="shared" si="2"/>
-        <v>3.8639250000000001</v>
+        <v>15.292800000000002</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="37" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C93" s="5">
-        <v>0.52400000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D93" s="9">
-        <v>1.784</v>
+        <v>1.7430000000000001</v>
       </c>
       <c r="E93" s="53">
         <f t="shared" si="2"/>
-        <v>0.45881600000000011</v>
+        <v>0.56350999999999996</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="37" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="C94" s="5">
         <v>0.6</v>
       </c>
       <c r="D94" s="9">
-        <v>4.3920000000000003</v>
+        <v>2.02</v>
       </c>
       <c r="E94" s="53">
         <f t="shared" si="2"/>
-        <v>2.2352000000000003</v>
+        <v>0.81199999999999994</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C95" s="5">
-        <v>0.63400000000000001</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="D95" s="9">
-        <v>6.1029999999999998</v>
+        <v>1.853</v>
       </c>
       <c r="E95" s="53">
         <f t="shared" si="2"/>
-        <v>3.5033019999999997</v>
+        <v>0.84589099999999995</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="37" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C96" s="5">
-        <v>0.46100000000000002</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="D96" s="9">
-        <v>1.669</v>
+        <v>5.3250000000000002</v>
       </c>
       <c r="E96" s="53">
         <f t="shared" si="2"/>
-        <v>0.23040900000000009</v>
+        <v>3.8639250000000001</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="37" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="C97" s="5">
-        <v>0.75</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D97" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.784</v>
       </c>
       <c r="E97" s="53">
         <f t="shared" si="2"/>
-        <v>0.83374999999999999</v>
+        <v>0.45881600000000011</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="37" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C98" s="5">
-        <v>0.66700000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="D98" s="9">
-        <v>3.5720000000000001</v>
+        <v>4.3920000000000003</v>
       </c>
       <c r="E98" s="53">
         <f t="shared" si="2"/>
-        <v>2.0495239999999999</v>
+        <v>2.2352000000000003</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="37" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C99" s="5">
-        <v>0.6</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D99" s="9">
-        <v>1.4550000000000001</v>
+        <v>6.1029999999999998</v>
       </c>
       <c r="E99" s="53">
-        <f t="shared" ref="E99:E130" si="3">((1*C99)*D99)-(((100%-C99)*(1)))</f>
-        <v>0.47299999999999998</v>
+        <f t="shared" ref="E99:E129" si="3">((1*C99)*D99)-(((100%-C99)*(1)))</f>
+        <v>3.5033019999999997</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C100" s="5">
-        <v>0.6</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D100" s="9">
-        <v>2.012</v>
+        <v>1.669</v>
       </c>
       <c r="E100" s="53">
         <f t="shared" si="3"/>
-        <v>0.80720000000000003</v>
+        <v>0.23040900000000009</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="37" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C101" s="5">
-        <v>0.55600000000000005</v>
+        <v>0.75</v>
       </c>
       <c r="D101" s="9">
-        <v>4.75</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="E101" s="53">
         <f t="shared" si="3"/>
-        <v>2.1970000000000001</v>
+        <v>0.83374999999999999</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C102" s="5">
         <v>0.66700000000000004</v>
       </c>
       <c r="D102" s="9">
-        <v>2.7519999999999998</v>
+        <v>3.5720000000000001</v>
       </c>
       <c r="E102" s="53">
         <f t="shared" si="3"/>
-        <v>1.5025839999999999</v>
+        <v>2.0495239999999999</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C103" s="5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D103" s="9">
-        <v>3.343</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="E103" s="53">
         <f t="shared" si="3"/>
-        <v>2.25725</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C104" s="5">
-        <v>0.73680000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D104" s="9">
-        <v>5.5449999999999999</v>
+        <v>2.012</v>
       </c>
       <c r="E104" s="53">
         <f t="shared" si="3"/>
-        <v>3.8223560000000005</v>
+        <v>0.80720000000000003</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="37" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C105" s="5">
-        <v>0.57099999999999995</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D105" s="9">
-        <v>2.516</v>
+        <v>4.75</v>
       </c>
       <c r="E105" s="53">
         <f t="shared" si="3"/>
-        <v>1.0076359999999998</v>
+        <v>2.1970000000000001</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="37" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C106" s="5">
-        <v>0.71399999999999997</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D106" s="9">
-        <v>2.4119999999999999</v>
+        <v>2.7519999999999998</v>
       </c>
       <c r="E106" s="53">
         <f t="shared" si="3"/>
-        <v>1.4361679999999999</v>
+        <v>1.5025839999999999</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="37" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C107" s="5">
-        <v>0.52600000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="D107" s="9">
-        <v>2.363</v>
+        <v>3.343</v>
       </c>
       <c r="E107" s="53">
         <f t="shared" si="3"/>
-        <v>0.76893800000000012</v>
+        <v>2.25725</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="37" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C108" s="5">
-        <v>0.70799999999999996</v>
+        <v>0.73680000000000001</v>
       </c>
       <c r="D108" s="9">
-        <v>2.859</v>
+        <v>5.5449999999999999</v>
       </c>
       <c r="E108" s="53">
         <f t="shared" si="3"/>
-        <v>1.732172</v>
+        <v>3.8223560000000005</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="37" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C109" s="5">
         <v>0.57099999999999995</v>
       </c>
       <c r="D109" s="9">
-        <v>2.2450000000000001</v>
+        <v>2.516</v>
       </c>
       <c r="E109" s="53">
         <f t="shared" si="3"/>
-        <v>0.85289499999999996</v>
+        <v>1.0076359999999998</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="37" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C110" s="5">
-        <v>0.61499999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="D110" s="9">
-        <v>1.946</v>
+        <v>2.4119999999999999</v>
       </c>
       <c r="E110" s="53">
         <f t="shared" si="3"/>
-        <v>0.81179000000000001</v>
+        <v>1.4361679999999999</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="37" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C111" s="5">
-        <v>0.5</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D111" s="9">
-        <v>2.4470000000000001</v>
+        <v>10.645</v>
       </c>
       <c r="E111" s="53">
         <f t="shared" si="3"/>
-        <v>0.72350000000000003</v>
+        <v>6.7672150000000002</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="37" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C112" s="5">
-        <v>0.83299999999999996</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D112" s="9">
-        <v>3.2229999999999999</v>
+        <v>2.363</v>
       </c>
       <c r="E112" s="53">
         <f t="shared" si="3"/>
-        <v>2.5177589999999999</v>
+        <v>0.76893800000000012</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="37" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C113" s="5">
-        <v>0.60799999999999998</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D113" s="9">
-        <v>1.9139999999999999</v>
+        <v>2.859</v>
       </c>
       <c r="E113" s="53">
         <f t="shared" si="3"/>
-        <v>0.77171199999999984</v>
+        <v>1.732172</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="37" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C114" s="5">
-        <v>0.66700000000000004</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="D114" s="9">
-        <v>3.19</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="E114" s="53">
         <f t="shared" si="3"/>
-        <v>1.7947300000000002</v>
+        <v>0.85289499999999996</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="37" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C115" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D115" s="9">
-        <v>2.4969999999999999</v>
+        <v>1.946</v>
       </c>
       <c r="E115" s="53">
         <f t="shared" si="3"/>
-        <v>0.92335000000000012</v>
+        <v>0.81179000000000001</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="37" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C116" s="5">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="D116" s="9">
-        <v>1.7030000000000001</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="E116" s="53">
         <f t="shared" si="3"/>
-        <v>0.21635000000000004</v>
+        <v>0.72350000000000003</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="37" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C117" s="5">
-        <v>0.52780000000000005</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D117" s="9">
-        <v>1.4370000000000001</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="E117" s="53">
         <f t="shared" si="3"/>
-        <v>0.28624860000000019</v>
+        <v>2.5177589999999999</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="37" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C118" s="5">
-        <v>0.6</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D118" s="9">
-        <v>2.0840000000000001</v>
+        <v>1.9139999999999999</v>
       </c>
       <c r="E118" s="53">
         <f t="shared" si="3"/>
-        <v>0.85039999999999993</v>
+        <v>0.77171199999999984</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="37" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C119" s="5">
-        <v>0.64700000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D119" s="9">
-        <v>9.9499999999999993</v>
+        <v>3.19</v>
       </c>
       <c r="E119" s="53">
         <f t="shared" si="3"/>
-        <v>6.0846499999999999</v>
+        <v>1.7947300000000002</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="37" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C120" s="5">
-        <v>0.48</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D120" s="9">
-        <v>1.595</v>
+        <v>2.4969999999999999</v>
       </c>
       <c r="E120" s="53">
         <f t="shared" si="3"/>
-        <v>0.24559999999999993</v>
+        <v>0.92335000000000012</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="37" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C121" s="5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="D121" s="9">
-        <v>3.387</v>
+        <v>1.7030000000000001</v>
       </c>
       <c r="E121" s="53">
         <f t="shared" si="3"/>
-        <v>1.1935</v>
+        <v>0.21635000000000004</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="37" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C122" s="5">
-        <v>0.625</v>
+        <v>0.52780000000000005</v>
       </c>
       <c r="D122" s="9">
-        <v>1.3380000000000001</v>
+        <v>1.4370000000000001</v>
       </c>
       <c r="E122" s="53">
         <f t="shared" si="3"/>
-        <v>0.46125000000000005</v>
+        <v>0.28624860000000019</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="37" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C123" s="5">
-        <v>0.66700000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="D123" s="9">
-        <v>2.0070000000000001</v>
+        <v>2.0840000000000001</v>
       </c>
       <c r="E123" s="53">
         <f t="shared" si="3"/>
-        <v>1.0056690000000001</v>
+        <v>0.85039999999999993</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="37" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C124" s="5">
-        <v>0.62070000000000003</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="D124" s="9">
-        <v>1.349</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E124" s="53">
         <f t="shared" si="3"/>
-        <v>0.45802430000000005</v>
+        <v>6.0846499999999999</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="37" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C125" s="5">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="D125" s="9">
-        <v>4.3810000000000002</v>
+        <v>1.595</v>
       </c>
       <c r="E125" s="53">
         <f t="shared" si="3"/>
-        <v>1.6905000000000001</v>
+        <v>0.24559999999999993</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="37" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C126" s="5">
-        <v>0.66700000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="D126" s="9">
-        <v>10.645</v>
+        <v>3.387</v>
       </c>
       <c r="E126" s="53">
         <f t="shared" si="3"/>
-        <v>6.7672150000000002</v>
+        <v>1.1935</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="37" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C127" s="5">
-        <v>0.46150000000000002</v>
+        <v>0.625</v>
       </c>
       <c r="D127" s="9">
-        <v>3.7290000000000001</v>
+        <v>1.3380000000000001</v>
       </c>
       <c r="E127" s="53">
         <f t="shared" si="3"/>
-        <v>1.1824335000000001</v>
+        <v>0.46125000000000005</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="37" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C128" s="5">
-        <v>0.6</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D128" s="9">
-        <v>2.02</v>
+        <v>2.0070000000000001</v>
       </c>
       <c r="E128" s="53">
         <f t="shared" si="3"/>
-        <v>0.81199999999999994</v>
+        <v>1.0056690000000001</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="37" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C129" s="5">
-        <v>0.64100000000000001</v>
+        <v>0.62070000000000003</v>
       </c>
       <c r="D129" s="9">
-        <v>1.657</v>
+        <v>1.349</v>
       </c>
       <c r="E129" s="53">
         <f t="shared" si="3"/>
-        <v>0.70313700000000012</v>
+        <v>0.45802430000000005</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
@@ -6230,8 +6663,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:E57" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E57">
-      <sortCondition ref="B2:B57"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E129">
+      <sortCondition ref="B2:B129"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
@@ -6243,6 +6676,2071 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183B25D3-2133-BB41-B3C9-B66971D3CFDB}">
+  <dimension ref="A1:N52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="19" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="110">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="110">
+        <f>0.02*C1</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="110">
+        <f>(C2/C3)*5</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="101"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="104"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="85">
+        <v>43963</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="21">
+        <f>VLOOKUP(B9,'UK-STOCKS'!B:E,2,)</f>
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="D9" s="20">
+        <f>VLOOKUP(B9,'UK-STOCKS'!B:E,3,)</f>
+        <v>1.669</v>
+      </c>
+      <c r="E9" s="33">
+        <f>VLOOKUP(B9,'UK-STOCKS'!B:E,4,)</f>
+        <v>0.42978329999999987</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="35">
+        <v>400</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="21">
+        <f>VLOOKUP(B10,'UK-STOCKS'!B:E,2,)</f>
+        <v>0.57689999999999997</v>
+      </c>
+      <c r="D10" s="20">
+        <f>VLOOKUP(B10,'UK-STOCKS'!B:E,3,)</f>
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="E10" s="33">
+        <f>VLOOKUP(B10,'UK-STOCKS'!B:E,4,)</f>
+        <v>0.74569939999999968</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="35">
+        <v>400</v>
+      </c>
+      <c r="I10" s="57"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="21">
+        <f>VLOOKUP(B11,'UK-STOCKS'!B:E,2,)</f>
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="20">
+        <f>VLOOKUP(B11,'UK-STOCKS'!B:E,3,)</f>
+        <v>5.875</v>
+      </c>
+      <c r="E11" s="33">
+        <f>VLOOKUP(B11,'UK-STOCKS'!B:E,4,)</f>
+        <v>3.125</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="35">
+        <v>400</v>
+      </c>
+      <c r="I11" s="57">
+        <v>8832</v>
+      </c>
+      <c r="J11" s="63">
+        <v>8710</v>
+      </c>
+      <c r="K11" s="37">
+        <v>8710</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="60"/>
+      <c r="B12" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="21">
+        <f>VLOOKUP(B12,'UK-STOCKS'!B:E,2,)</f>
+        <v>0.625</v>
+      </c>
+      <c r="D12" s="20">
+        <f>VLOOKUP(B12,'UK-STOCKS'!B:E,3,)</f>
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="E12" s="33">
+        <f>VLOOKUP(B12,'UK-STOCKS'!B:E,4,)</f>
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="35">
+        <v>400</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="21">
+        <f>VLOOKUP(B13,'UK-STOCKS'!B:E,2,)</f>
+        <v>0.5161</v>
+      </c>
+      <c r="D13" s="20">
+        <f>VLOOKUP(B13,'UK-STOCKS'!B:E,3,)</f>
+        <v>1.784</v>
+      </c>
+      <c r="E13" s="33">
+        <f>VLOOKUP(B13,'UK-STOCKS'!B:E,4,)</f>
+        <v>0.43682240000000006</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="35">
+        <v>400</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="21">
+        <f>VLOOKUP(B14,'UK-STOCKS'!B:E,2,)</f>
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="D14" s="20">
+        <f>VLOOKUP(B14,'UK-STOCKS'!B:E,3,)</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="E14" s="33">
+        <f>VLOOKUP(B14,'UK-STOCKS'!B:E,4,)</f>
+        <v>0.4469074999999999</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="35">
+        <v>400</v>
+      </c>
+      <c r="I14" s="61">
+        <v>388.6</v>
+      </c>
+      <c r="J14" s="62">
+        <v>382</v>
+      </c>
+      <c r="K14" s="37">
+        <v>388.6</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="23"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="23"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="23"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="39"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="23"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="39"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="84"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="84"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="84"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="55">
+        <f>SUM(M9:M18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="101"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="104"/>
+    </row>
+    <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B27" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="L27" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="M27" s="47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="85">
+        <v>43962</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="21">
+        <f>VLOOKUP(B29,'US-STOCKS'!B:E,2,)</f>
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="D29" s="20">
+        <f>VLOOKUP(B29,'US-STOCKS'!B:E,3,)</f>
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="E29" s="20">
+        <f>VLOOKUP(B29,'US-STOCKS'!B:E,4,)</f>
+        <v>0.50426199999999988</v>
+      </c>
+      <c r="F29" s="83">
+        <f t="shared" ref="F29:F31" si="0">2500/((I29+J29)/2)</f>
+        <v>256.01638504864309</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" ref="G29:G31" si="1">I29-J29</f>
+        <v>0.20999999999999908</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" ref="H29:H31" si="2">G29*F29</f>
+        <v>53.763440860214814</v>
+      </c>
+      <c r="I29" s="56">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="J29" s="56">
+        <v>9.66</v>
+      </c>
+      <c r="K29" s="37">
+        <v>9.66</v>
+      </c>
+      <c r="L29" s="37">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="M29" s="84">
+        <f t="shared" ref="M29:M31" si="3">IF(K29=I29,(L29-K29),(K29-L29)) * F29</f>
+        <v>-53.763440860214814</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="21">
+        <f>VLOOKUP(B30,'US-STOCKS'!B:E,2,)</f>
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D30" s="20">
+        <f>VLOOKUP(B30,'US-STOCKS'!B:E,3,)</f>
+        <v>1.76</v>
+      </c>
+      <c r="E30" s="20">
+        <f>VLOOKUP(B30,'US-STOCKS'!B:E,4,)</f>
+        <v>0.27236000000000016</v>
+      </c>
+      <c r="F30" s="83">
+        <f t="shared" si="0"/>
+        <v>13.897768018456237</v>
+      </c>
+      <c r="G30" s="25">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000171</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="2"/>
+        <v>34.049531645218018</v>
+      </c>
+      <c r="I30" s="56">
+        <v>181.11</v>
+      </c>
+      <c r="J30" s="56">
+        <v>178.66</v>
+      </c>
+      <c r="K30" s="37">
+        <v>178.66</v>
+      </c>
+      <c r="L30" s="37">
+        <v>181.11</v>
+      </c>
+      <c r="M30" s="84">
+        <f t="shared" si="3"/>
+        <v>-34.049531645218018</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="21">
+        <f>VLOOKUP(B31,'US-STOCKS'!B:E,2,)</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D31" s="20">
+        <f>VLOOKUP(B31,'US-STOCKS'!B:E,3,)</f>
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="E31" s="20">
+        <f>VLOOKUP(B31,'US-STOCKS'!B:E,4,)</f>
+        <v>0.56350999999999996</v>
+      </c>
+      <c r="F31" s="83">
+        <f t="shared" si="0"/>
+        <v>80.840743734842363</v>
+      </c>
+      <c r="G31" s="25">
+        <f t="shared" si="1"/>
+        <v>0.57000000000000028</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="2"/>
+        <v>46.079223928860166</v>
+      </c>
+      <c r="I31" s="56">
+        <v>31.21</v>
+      </c>
+      <c r="J31" s="56">
+        <v>30.64</v>
+      </c>
+      <c r="K31" s="37">
+        <v>31.21</v>
+      </c>
+      <c r="L31" s="37">
+        <v>31.5</v>
+      </c>
+      <c r="M31" s="84">
+        <f t="shared" si="3"/>
+        <v>23.443815683104216</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="68"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="84"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="84">
+        <f>SUM(M29:M32)</f>
+        <v>-64.36915682232862</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="85">
+        <v>43964</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="21">
+        <f>VLOOKUP(B35,'US-STOCKS'!B:E,2,)</f>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D35" s="20">
+        <f>VLOOKUP(B35,'US-STOCKS'!B:E,3,)</f>
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="E35" s="20">
+        <f>VLOOKUP(B35,'US-STOCKS'!B:E,4,)</f>
+        <v>1.1510060000000002</v>
+      </c>
+      <c r="F35" s="83">
+        <f>2500/((I35+J35)/2)</f>
+        <v>58.024834629221303</v>
+      </c>
+      <c r="G35" s="25">
+        <f t="shared" ref="G35:G38" si="4">I35-J35</f>
+        <v>0.73000000000000398</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" ref="H35:H38" si="5">G35*F35</f>
+        <v>42.358129279331784</v>
+      </c>
+      <c r="I35" s="56">
+        <v>43.45</v>
+      </c>
+      <c r="J35" s="56">
+        <v>42.72</v>
+      </c>
+      <c r="K35" s="37">
+        <v>43.45</v>
+      </c>
+      <c r="L35" s="37">
+        <v>42.72</v>
+      </c>
+      <c r="M35" s="84">
+        <f t="shared" ref="M35:M38" si="6">IF(K35=I35,(L35-K35),(K35-L35)) * F35</f>
+        <v>-42.358129279331784</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="21">
+        <f>VLOOKUP(B36,'US-STOCKS'!B:E,2,)</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D36" s="20">
+        <f>VLOOKUP(B36,'US-STOCKS'!B:E,3,)</f>
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="E36" s="20">
+        <f>VLOOKUP(B36,'US-STOCKS'!B:E,4,)</f>
+        <v>1.0299560000000001</v>
+      </c>
+      <c r="F36" s="83">
+        <f t="shared" ref="F36:F38" si="7">2500/((I36+J36)/2)</f>
+        <v>24.790520105111806</v>
+      </c>
+      <c r="G36" s="25">
+        <f t="shared" si="4"/>
+        <v>1.9499999999999886</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="5"/>
+        <v>48.341514204967737</v>
+      </c>
+      <c r="I36" s="56">
+        <v>101.82</v>
+      </c>
+      <c r="J36" s="56">
+        <v>99.87</v>
+      </c>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="21">
+        <f>VLOOKUP(B37,'US-STOCKS'!B:E,2,)</f>
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D37" s="20">
+        <f>VLOOKUP(B37,'US-STOCKS'!B:E,3,)</f>
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="E37" s="20">
+        <f>VLOOKUP(B37,'US-STOCKS'!B:E,4,)</f>
+        <v>0.88681399999999977</v>
+      </c>
+      <c r="F37" s="83">
+        <f t="shared" si="7"/>
+        <v>197.47235387045814</v>
+      </c>
+      <c r="G37" s="25">
+        <f t="shared" si="4"/>
+        <v>0.64000000000000057</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="5"/>
+        <v>126.38230647709332</v>
+      </c>
+      <c r="I37" s="56">
+        <v>12.98</v>
+      </c>
+      <c r="J37" s="56">
+        <v>12.34</v>
+      </c>
+      <c r="K37" s="37">
+        <v>12.34</v>
+      </c>
+      <c r="L37" s="37">
+        <v>12.04</v>
+      </c>
+      <c r="M37" s="84">
+        <f t="shared" si="6"/>
+        <v>59.241706161137579</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="21">
+        <f>VLOOKUP(B38,'US-STOCKS'!B:E,2,)</f>
+        <v>0.625</v>
+      </c>
+      <c r="D38" s="20">
+        <f>VLOOKUP(B38,'US-STOCKS'!B:E,3,)</f>
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="E38" s="20">
+        <f>VLOOKUP(B38,'US-STOCKS'!B:E,4,)</f>
+        <v>0.79749999999999988</v>
+      </c>
+      <c r="F38" s="83">
+        <f t="shared" si="7"/>
+        <v>23.179268462287329</v>
+      </c>
+      <c r="G38" s="25">
+        <f t="shared" si="4"/>
+        <v>1.9099999999999966</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="5"/>
+        <v>44.272402762968717</v>
+      </c>
+      <c r="I38" s="56">
+        <v>108.81</v>
+      </c>
+      <c r="J38" s="56">
+        <v>106.9</v>
+      </c>
+      <c r="K38" s="37">
+        <v>106.9</v>
+      </c>
+      <c r="L38" s="37">
+        <v>105.41</v>
+      </c>
+      <c r="M38" s="84">
+        <f t="shared" si="6"/>
+        <v>34.537110008808334</v>
+      </c>
+      <c r="N38" s="22"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="84">
+        <f>SUM(M35:M38)</f>
+        <v>51.420686890614128</v>
+      </c>
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="22"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="23"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="22"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="23"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="22"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="39"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="23"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="39"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="23"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="39"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="M46" s="79">
+        <f>SUM(M29:M45)</f>
+        <v>-25.89693986342899</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:M26"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B37" r:id="rId1" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=CCL" xr:uid="{C9A8BA7F-B603-654A-AF1C-8123379C3058}"/>
+    <hyperlink ref="B36" r:id="rId2" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=CDW" xr:uid="{1592714A-A984-DA4D-8B65-08E028ADFB87}"/>
+    <hyperlink ref="B35" r:id="rId3" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=CSCO" xr:uid="{F6DB6255-6E6F-D746-8E90-B7E23655CA11}"/>
+    <hyperlink ref="B38" r:id="rId4" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=DGX" xr:uid="{5044A183-530D-9D44-8B3D-A23E8CFB6600}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DAEA6E-C967-4546-9BBC-E0B15A9C7B45}">
+  <dimension ref="B1:T38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B1" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="37">
+        <v>12.54</v>
+      </c>
+      <c r="G1" s="37">
+        <v>12.05</v>
+      </c>
+      <c r="H1" s="76">
+        <v>19331095</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q1" s="37">
+        <v>12.54</v>
+      </c>
+      <c r="R1" s="37">
+        <v>12.05</v>
+      </c>
+      <c r="S1" s="76">
+        <v>19331095</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="37">
+        <v>506</v>
+      </c>
+      <c r="G2" s="37">
+        <v>496.62</v>
+      </c>
+      <c r="H2" s="76">
+        <v>450500</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>506</v>
+      </c>
+      <c r="R2" s="37">
+        <v>496.62</v>
+      </c>
+      <c r="S2" s="76">
+        <v>450500</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3" s="37">
+        <v>38.36</v>
+      </c>
+      <c r="G3" s="37">
+        <v>37.15</v>
+      </c>
+      <c r="H3" s="76">
+        <v>10191900</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="M3" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q3" s="37">
+        <v>38.36</v>
+      </c>
+      <c r="R3" s="37">
+        <v>37.15</v>
+      </c>
+      <c r="S3" s="76">
+        <v>10191900</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="37">
+        <v>43.02</v>
+      </c>
+      <c r="G4" s="37">
+        <v>41.7</v>
+      </c>
+      <c r="H4" s="76">
+        <v>21959100</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="M4" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>43.02</v>
+      </c>
+      <c r="R4" s="37">
+        <v>41.7</v>
+      </c>
+      <c r="S4" s="76">
+        <v>21959100</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="37">
+        <v>153.18</v>
+      </c>
+      <c r="G5" s="37">
+        <v>143</v>
+      </c>
+      <c r="H5" s="76">
+        <v>2077100</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>153.18</v>
+      </c>
+      <c r="R5" s="37">
+        <v>143</v>
+      </c>
+      <c r="S5" s="76">
+        <v>2077100</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="37">
+        <v>81.38</v>
+      </c>
+      <c r="G6" s="37">
+        <v>79.959999999999994</v>
+      </c>
+      <c r="H6" s="76">
+        <v>1199950</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="M6" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q6" s="37">
+        <v>81.38</v>
+      </c>
+      <c r="R6" s="37">
+        <v>79.959999999999994</v>
+      </c>
+      <c r="S6" s="76">
+        <v>1199950</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="37">
+        <v>29.66</v>
+      </c>
+      <c r="G7" s="37">
+        <v>28.931000000000001</v>
+      </c>
+      <c r="H7" s="76">
+        <v>4693556</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M7" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="37">
+        <v>29.66</v>
+      </c>
+      <c r="R7" s="37">
+        <v>28.931000000000001</v>
+      </c>
+      <c r="S7" s="76">
+        <v>4693556</v>
+      </c>
+      <c r="T7" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="37">
+        <v>230.63</v>
+      </c>
+      <c r="G8" s="37">
+        <v>225.74</v>
+      </c>
+      <c r="H8" s="76">
+        <v>2827200</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q8" s="37">
+        <v>230.63</v>
+      </c>
+      <c r="R8" s="37">
+        <v>225.74</v>
+      </c>
+      <c r="S8" s="76">
+        <v>2827200</v>
+      </c>
+      <c r="T8" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" s="37">
+        <v>66.06</v>
+      </c>
+      <c r="G9" s="37">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="H9" s="76">
+        <v>6370900</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="M9" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q9" s="37">
+        <v>66.06</v>
+      </c>
+      <c r="R9" s="37">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="S9" s="76">
+        <v>6370900</v>
+      </c>
+      <c r="T9" s="37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="37">
+        <v>18.89</v>
+      </c>
+      <c r="G10" s="37">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="H10" s="76">
+        <v>10910280</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="M10" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q10" s="37">
+        <v>18.89</v>
+      </c>
+      <c r="R10" s="37">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="S10" s="76">
+        <v>10910280</v>
+      </c>
+      <c r="T10" s="37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="37">
+        <v>74.97</v>
+      </c>
+      <c r="G11" s="37">
+        <v>72.63</v>
+      </c>
+      <c r="H11" s="76">
+        <v>1268400</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="37">
+        <v>74.97</v>
+      </c>
+      <c r="R11" s="37">
+        <v>72.63</v>
+      </c>
+      <c r="S11" s="76">
+        <v>1268400</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="37">
+        <v>53.48</v>
+      </c>
+      <c r="G12" s="37">
+        <v>52.02</v>
+      </c>
+      <c r="H12" s="76">
+        <v>2470500</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q12" s="37">
+        <v>53.48</v>
+      </c>
+      <c r="R12" s="37">
+        <v>52.02</v>
+      </c>
+      <c r="S12" s="76">
+        <v>2470500</v>
+      </c>
+      <c r="T12" s="37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J27"/>
+      <c r="K27" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="L27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M27" t="s">
+        <v>300</v>
+      </c>
+      <c r="N27" t="s">
+        <v>301</v>
+      </c>
+      <c r="O27">
+        <v>9.52</v>
+      </c>
+      <c r="P27">
+        <v>9.1449999999999996</v>
+      </c>
+      <c r="Q27" s="105">
+        <v>18925309</v>
+      </c>
+      <c r="R27" t="s">
+        <v>302</v>
+      </c>
+      <c r="S27"/>
+      <c r="T27"/>
+    </row>
+    <row r="28" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J28"/>
+      <c r="K28" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" t="s">
+        <v>303</v>
+      </c>
+      <c r="M28" t="s">
+        <v>304</v>
+      </c>
+      <c r="N28" t="s">
+        <v>305</v>
+      </c>
+      <c r="O28">
+        <v>13.005000000000001</v>
+      </c>
+      <c r="P28">
+        <v>12.285</v>
+      </c>
+      <c r="Q28" s="105">
+        <v>20452859</v>
+      </c>
+      <c r="R28" t="s">
+        <v>306</v>
+      </c>
+      <c r="S28"/>
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J29"/>
+      <c r="K29" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" t="s">
+        <v>307</v>
+      </c>
+      <c r="M29" t="s">
+        <v>308</v>
+      </c>
+      <c r="N29" t="s">
+        <v>309</v>
+      </c>
+      <c r="O29">
+        <v>101.85</v>
+      </c>
+      <c r="P29">
+        <v>99.73</v>
+      </c>
+      <c r="Q29" s="105">
+        <v>155902</v>
+      </c>
+      <c r="R29" t="s">
+        <v>310</v>
+      </c>
+      <c r="S29"/>
+      <c r="T29"/>
+    </row>
+    <row r="30" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J30"/>
+      <c r="K30" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="s">
+        <v>311</v>
+      </c>
+      <c r="N30" t="s">
+        <v>312</v>
+      </c>
+      <c r="O30">
+        <v>43.545000000000002</v>
+      </c>
+      <c r="P30">
+        <v>42.744999999999997</v>
+      </c>
+      <c r="Q30" s="105">
+        <v>5902821</v>
+      </c>
+      <c r="R30" t="s">
+        <v>313</v>
+      </c>
+      <c r="S30"/>
+      <c r="T30"/>
+    </row>
+    <row r="31" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J31"/>
+      <c r="K31" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" t="s">
+        <v>314</v>
+      </c>
+      <c r="M31" t="s">
+        <v>315</v>
+      </c>
+      <c r="N31" t="s">
+        <v>316</v>
+      </c>
+      <c r="O31">
+        <v>52.59</v>
+      </c>
+      <c r="P31">
+        <v>51.29</v>
+      </c>
+      <c r="Q31" s="105">
+        <v>1368525</v>
+      </c>
+      <c r="R31" t="s">
+        <v>317</v>
+      </c>
+      <c r="S31"/>
+      <c r="T31"/>
+    </row>
+    <row r="32" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J32"/>
+      <c r="K32" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="L32" t="s">
+        <v>318</v>
+      </c>
+      <c r="M32" t="s">
+        <v>319</v>
+      </c>
+      <c r="N32" t="s">
+        <v>320</v>
+      </c>
+      <c r="O32">
+        <v>108.99</v>
+      </c>
+      <c r="P32">
+        <v>106.83</v>
+      </c>
+      <c r="Q32" s="105">
+        <v>250067</v>
+      </c>
+      <c r="R32" t="s">
+        <v>321</v>
+      </c>
+      <c r="S32"/>
+      <c r="T32"/>
+    </row>
+    <row r="33" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J33"/>
+      <c r="K33" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="L33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" t="s">
+        <v>322</v>
+      </c>
+      <c r="N33" t="s">
+        <v>323</v>
+      </c>
+      <c r="O33">
+        <v>79.48</v>
+      </c>
+      <c r="P33">
+        <v>78.38</v>
+      </c>
+      <c r="Q33" s="105">
+        <v>168487</v>
+      </c>
+      <c r="R33" t="s">
+        <v>324</v>
+      </c>
+      <c r="S33"/>
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J34"/>
+      <c r="K34" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" t="s">
+        <v>325</v>
+      </c>
+      <c r="M34" t="s">
+        <v>326</v>
+      </c>
+      <c r="N34" t="s">
+        <v>327</v>
+      </c>
+      <c r="O34">
+        <v>58.18</v>
+      </c>
+      <c r="P34">
+        <v>56.87</v>
+      </c>
+      <c r="Q34" s="105">
+        <v>776738</v>
+      </c>
+      <c r="R34" t="s">
+        <v>328</v>
+      </c>
+      <c r="S34"/>
+      <c r="T34"/>
+    </row>
+    <row r="35" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J35"/>
+      <c r="K35" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="L35" t="s">
+        <v>329</v>
+      </c>
+      <c r="M35" t="s">
+        <v>330</v>
+      </c>
+      <c r="N35" t="s">
+        <v>331</v>
+      </c>
+      <c r="O35">
+        <v>64.56</v>
+      </c>
+      <c r="P35">
+        <v>63.02</v>
+      </c>
+      <c r="Q35" s="105">
+        <v>958372</v>
+      </c>
+      <c r="R35" t="s">
+        <v>332</v>
+      </c>
+      <c r="S35"/>
+      <c r="T35"/>
+    </row>
+    <row r="36" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J36"/>
+      <c r="K36" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="L36" t="s">
+        <v>333</v>
+      </c>
+      <c r="M36" t="s">
+        <v>334</v>
+      </c>
+      <c r="N36" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36">
+        <v>113.345</v>
+      </c>
+      <c r="P36">
+        <v>110.955</v>
+      </c>
+      <c r="Q36" s="105">
+        <v>1749158</v>
+      </c>
+      <c r="R36" t="s">
+        <v>336</v>
+      </c>
+      <c r="S36"/>
+      <c r="T36"/>
+    </row>
+    <row r="37" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J37"/>
+      <c r="K37" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="L37" t="s">
+        <v>337</v>
+      </c>
+      <c r="M37" t="s">
+        <v>338</v>
+      </c>
+      <c r="N37" t="s">
+        <v>339</v>
+      </c>
+      <c r="O37">
+        <v>86.89</v>
+      </c>
+      <c r="P37">
+        <v>84.51</v>
+      </c>
+      <c r="Q37" s="105">
+        <v>465778</v>
+      </c>
+      <c r="R37" t="s">
+        <v>340</v>
+      </c>
+      <c r="S37"/>
+      <c r="T37"/>
+    </row>
+    <row r="38" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J38"/>
+      <c r="K38" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="L38" t="s">
+        <v>341</v>
+      </c>
+      <c r="M38" t="s">
+        <v>342</v>
+      </c>
+      <c r="N38" t="s">
+        <v>343</v>
+      </c>
+      <c r="O38">
+        <v>95</v>
+      </c>
+      <c r="P38">
+        <v>93.91</v>
+      </c>
+      <c r="Q38" s="105">
+        <v>1169828</v>
+      </c>
+      <c r="R38" t="s">
+        <v>344</v>
+      </c>
+      <c r="S38"/>
+      <c r="T38"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=APA" xr:uid="{E07ABABF-B36D-2E4C-8F97-E864F3BF20BD}"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=BLK" xr:uid="{7E00565B-ACE4-2941-9DD2-74E1133765C4}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=BSX" xr:uid="{2E886473-32DE-9E48-8901-D5FB85DC1C39}"/>
+    <hyperlink ref="B4" r:id="rId4" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=CSCO" xr:uid="{0BCAC459-415E-8141-8031-3F8A1C46A344}"/>
+    <hyperlink ref="B5" r:id="rId5" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=DLR" xr:uid="{15B91BB4-4401-EA4A-8395-AC0CD92341FB}"/>
+    <hyperlink ref="B6" r:id="rId6" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=DVA" xr:uid="{80A9A68A-F0AA-A048-822D-8947BE6DD00C}"/>
+    <hyperlink ref="B7" r:id="rId7" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=KHC" xr:uid="{6489ECBF-D817-DE48-9D3E-9E2062936B98}"/>
+    <hyperlink ref="B8" r:id="rId8" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=NEE" xr:uid="{7924406B-E031-5043-9213-A4669C338CCF}"/>
+    <hyperlink ref="B9" r:id="rId9" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=NEM" xr:uid="{F3394115-2CBE-A64F-A320-3C0716CD7431}"/>
+    <hyperlink ref="B10" r:id="rId10" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=PENN" xr:uid="{98C7AE3A-F454-0E43-A9E6-5484B7DFF987}"/>
+    <hyperlink ref="B11" r:id="rId11" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=PNW" xr:uid="{84B8802B-E955-7143-BA80-5A3D876E2E9A}"/>
+    <hyperlink ref="B12" r:id="rId12" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=SYY" xr:uid="{F9E0D79E-E606-974F-9576-33BAB01A6D50}"/>
+    <hyperlink ref="M1" r:id="rId13" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=APA" xr:uid="{493CC943-7A8B-674B-9F5D-1748391C97F4}"/>
+    <hyperlink ref="M2" r:id="rId14" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=BLK" xr:uid="{ABB0F7AB-76F4-1643-BC40-A970FEFD93DA}"/>
+    <hyperlink ref="M3" r:id="rId15" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=BSX" xr:uid="{B36236EF-9ACF-4B45-A671-1B1DD25514E5}"/>
+    <hyperlink ref="M4" r:id="rId16" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=CSCO" xr:uid="{E8471174-F15F-0045-A909-B73FF2C3CE52}"/>
+    <hyperlink ref="M5" r:id="rId17" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=DLR" xr:uid="{A03A940B-7528-BE4D-89E4-F38FF1E1058F}"/>
+    <hyperlink ref="M6" r:id="rId18" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=DVA" xr:uid="{1F93A521-60E1-F348-926A-505DEF1718B4}"/>
+    <hyperlink ref="M7" r:id="rId19" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=KHC" xr:uid="{5ED00BA4-CDB1-FC42-BF15-C4B16C960FCB}"/>
+    <hyperlink ref="M8" r:id="rId20" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=NEE" xr:uid="{06679033-A778-0B4B-BB7C-629AFBDDDDED}"/>
+    <hyperlink ref="M9" r:id="rId21" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=NEM" xr:uid="{33EB4816-BE85-8641-8B8B-1F4B1EC02EBB}"/>
+    <hyperlink ref="M10" r:id="rId22" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=PENN" xr:uid="{FB073274-E4F9-ED4C-90B6-58683DD160F2}"/>
+    <hyperlink ref="M11" r:id="rId23" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=PNW" xr:uid="{8F0D983C-CF7A-2647-BE59-0CC037917BDD}"/>
+    <hyperlink ref="M12" r:id="rId24" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=SYY" xr:uid="{967B5F41-3214-1749-9619-09E300D2A840}"/>
+    <hyperlink ref="K27" r:id="rId25" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=AAL" xr:uid="{9EC1F755-F011-B04F-B7B5-6547C8F7F937}"/>
+    <hyperlink ref="K28" r:id="rId26" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=CCL" xr:uid="{9C2A6387-E26A-DB4B-B067-8633C602B029}"/>
+    <hyperlink ref="K29" r:id="rId27" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=CDW" xr:uid="{13F5AA60-252A-104A-9D9F-FC37070BA7DA}"/>
+    <hyperlink ref="K30" r:id="rId28" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=CSCO" xr:uid="{8D275643-4917-B940-8F2A-9828529B5FBE}"/>
+    <hyperlink ref="K31" r:id="rId29" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=CTSH" xr:uid="{2C9751AA-FA37-A54F-AD41-9DFE84DD2EF9}"/>
+    <hyperlink ref="K32" r:id="rId30" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=DGX" xr:uid="{A7EA2432-87A7-C249-B215-7BF4F015548D}"/>
+    <hyperlink ref="K33" r:id="rId31" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=DVA" xr:uid="{9E2A17C4-525B-844C-9DD4-020E18BECB20}"/>
+    <hyperlink ref="K34" r:id="rId32" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=EIX" xr:uid="{971E474C-41BF-4D48-89D3-B9A31BEC00C0}"/>
+    <hyperlink ref="K35" r:id="rId33" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=EXPE" xr:uid="{4A6779B2-9D9C-BB45-805B-9FDDF83C3F5E}"/>
+    <hyperlink ref="K36" r:id="rId34" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=LOW" xr:uid="{A18987B5-5270-7249-AE5D-03005509E889}"/>
+    <hyperlink ref="K37" r:id="rId35" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=MCHP" xr:uid="{2847A48F-30B8-FA4F-9BE9-8F4DD8EB06C8}"/>
+    <hyperlink ref="K38" r:id="rId36" tooltip="Chart" display="https://www.members.stockmonitor.com/charts/?s=MDT" xr:uid="{2643E3E9-ACD8-AF46-B223-774447A222D0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -6266,23 +8764,23 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74" t="s">
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="75"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="104"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B3" s="44" t="s">
@@ -6651,7 +9149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C011A8-8AB1-3649-8913-07E64571E4F0}">
   <dimension ref="A1:N35"/>
   <sheetViews>
@@ -6678,28 +9176,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74" t="s">
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="75"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B3" s="44" t="s">
@@ -6727,13 +9225,13 @@
         <v>67</v>
       </c>
       <c r="J3" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="L3" s="50" t="s">
         <v>234</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>235</v>
       </c>
       <c r="M3" s="47" t="s">
         <v>66</v>
@@ -6927,24 +9425,24 @@
       <c r="M17"/>
     </row>
     <row r="18" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71" t="s">
+      <c r="B18" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74" t="s">
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="75"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="104"/>
     </row>
     <row r="19" spans="2:14" ht="30" x14ac:dyDescent="0.2">
       <c r="B19" s="44" t="s">
@@ -6972,13 +9470,13 @@
         <v>67</v>
       </c>
       <c r="J19" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="L19" s="50" t="s">
         <v>234</v>
-      </c>
-      <c r="L19" s="50" t="s">
-        <v>235</v>
       </c>
       <c r="M19" s="47" t="s">
         <v>66</v>
@@ -6986,7 +9484,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="21">
         <f>VLOOKUP(B20,'US-STOCKS'!B:E,2,)</f>
@@ -7031,7 +9529,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="21">
         <f>VLOOKUP(B21,'US-STOCKS'!B:E,2,)</f>
@@ -7076,7 +9574,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="21">
         <f>VLOOKUP(B22,'US-STOCKS'!B:E,2,)</f>
@@ -7122,7 +9620,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="21">
         <f>VLOOKUP(B23,'US-STOCKS'!B:E,2,)</f>
@@ -7363,12 +9861,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97EF7D9-2AF0-AE41-86E2-189EED8BF031}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7392,24 +9890,24 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71" t="s">
+      <c r="B2" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74" t="s">
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="75"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B3" s="44" t="s">
@@ -7437,13 +9935,13 @@
         <v>67</v>
       </c>
       <c r="J3" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="L3" s="50" t="s">
         <v>234</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>235</v>
       </c>
       <c r="M3" s="47" t="s">
         <v>66</v>
@@ -7762,26 +10260,26 @@
     </row>
     <row r="17" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71" t="s">
+      <c r="B18" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74" t="s">
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="75"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="104"/>
       <c r="O18" s="54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P18" s="54">
         <v>100000</v>
@@ -7813,19 +10311,19 @@
         <v>67</v>
       </c>
       <c r="J19" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="L19" s="50" t="s">
         <v>234</v>
-      </c>
-      <c r="L19" s="50" t="s">
-        <v>235</v>
       </c>
       <c r="M19" s="47" t="s">
         <v>66</v>
       </c>
       <c r="O19" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P19" s="54">
         <f>P18*0.02</f>
@@ -7834,7 +10332,7 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="21">
         <f>VLOOKUP(B20,'US-STOCKS'!B:E,2,)</f>
@@ -7873,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P20" s="54">
         <v>5</v>
@@ -7881,7 +10379,7 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="21">
         <f>VLOOKUP(B21,'US-STOCKS'!B:E,2,)</f>
@@ -7924,7 +10422,7 @@
         <v>646.46464646465438</v>
       </c>
       <c r="O21" s="54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P21" s="54">
         <f>P19/P20</f>
@@ -7933,7 +10431,7 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="21">
         <f>VLOOKUP(B22,'US-STOCKS'!B:E,2,)</f>
@@ -7948,7 +10446,7 @@
         <v>0.59016000000000024</v>
       </c>
       <c r="F22" s="42">
-        <f t="shared" ref="F21:F24" si="4">400/G22</f>
+        <f t="shared" ref="F22:F24" si="4">400/G22</f>
         <v>62.015503875969102</v>
       </c>
       <c r="G22" s="25">
@@ -7974,7 +10472,7 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="21">
         <f>VLOOKUP(B23,'US-STOCKS'!B:E,2,)</f>
@@ -8015,7 +10513,7 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="21">
         <f>VLOOKUP(B24,'US-STOCKS'!B:E,2,)</f>
@@ -8206,7 +10704,7 @@
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
-      <c r="M35" s="76">
+      <c r="M35" s="65">
         <f>SUM(M20:M34)</f>
         <v>646.46464646465438</v>
       </c>
